--- a/biology/Histoire de la zoologie et de la botanique/Frédéric_de_Lafresnaye/Frédéric_de_Lafresnaye.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frédéric_de_Lafresnaye/Frédéric_de_Lafresnaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_de_Lafresnaye</t>
+          <t>Frédéric_de_Lafresnaye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noël-Frédéric-Armand André, 3e baron[1] de La Fresnaye ou de Lafresnaye, né le 24 juillet 1783 au château de La Fresnaye à Falaise où il est mort le 14 juillet 1861, est un collectionneur et un ornithologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noël-Frédéric-Armand André, 3e baron de La Fresnaye ou de Lafresnaye, né le 24 juillet 1783 au château de La Fresnaye à Falaise où il est mort le 14 juillet 1861, est un collectionneur et un ornithologue français.
 Il travaille avec Alcide Dessalines d'Orbigny (1806-1876) et décrit de nombreuses espèces comme des perroquets et des Aras.
 Il épouse Isaure Guéneau de Montbéliard, petite-fille de son correspondant et ami, Philibert Guéneau de Montbéliard, collaborateur de Buffon.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_de_Lafresnaye</t>
+          <t>Frédéric_de_Lafresnaye</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plusieurs espèces lui ont été dédiées dont[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plusieurs espèces lui ont été dédiées dont :
 Colibri de Lafresnaye — Lafresnaya lafresnayi (Boissonneau, 1840)
 Picumne de Lafresnaye — Picumnus lafresnayi Malherbe, 1862
 Râle de Lafresnaye — Gallirallus lafresnayanus Verreaux et DesMurs, 1860</t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_de_Lafresnaye</t>
+          <t>Frédéric_de_Lafresnaye</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Quelques espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ara de Lafresnaye - Ara rubrogenys Lafresnaye, 1847
 Atelornis pittoides (Lafresnaye, 1834)
